--- a/DDAf_2024_Tableau_annexe_Tab37.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab37.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DABE1F5-F0A1-49D8-85BF-F91E464AF100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A567E1BD-0033-44D4-90CC-4A5848E73216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F37E7904-CAA4-4589-9E6D-227D0007BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{443F66D1-0D37-4AD0-9FCC-061AE55B5A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab37" sheetId="1" r:id="rId1"/>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8A69B0-0F25-477A-B797-ED67436DFF95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1A89B5-A6B4-4CE0-A3BF-13D8F6C8CBC4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1450,15 +1450,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1487,7 +1487,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="95" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>-457</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>-437</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>35</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>-503</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>-3997</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>-7621</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>-484</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>45</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>47</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>-12665</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>49</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>51</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>-1353</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>53</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>-435</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>57</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>61</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>63</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>47</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>68</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>70</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>72</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>74</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>76</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>-18509</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>78</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>80</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>82</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>-1162</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>84</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>89</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>91</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>93</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>-9047</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>95</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>47</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>-26342</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>100</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>51097</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>102</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>15473</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>104</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>106</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>108</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>47</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>72759</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>111</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>-276</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>113</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>115</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>117</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>119</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>121</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>123</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>-2712</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>125</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>-102</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>127</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>129</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>131</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>-603</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>133</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>135</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>-7169</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>137</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>-192</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>139</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>-116</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>47</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>-7997</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>47</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>29166</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46" t="s">
         <v>47</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>8704950</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
         <v>47</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>249011</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>47</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>-196753</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
         <v>47</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>8734116</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
         <v>47</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>50083</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>47</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>62931</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="55" t="s">
         <v>47</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>-28584</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
         <v>47</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="55" t="s">
         <v>47</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>-7997</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>47</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>-17837</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>47</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>-20021</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
         <v>47</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>21662</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>47</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>-4537</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
         <v>47</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>-119720</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
         <v>47</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>106859</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="55" t="s">
         <v>47</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>1124742</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
         <v>47</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>8152013</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="55" t="s">
         <v>47</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>22454</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="55" t="s">
         <v>47</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>529710</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
         <v>47</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>6712</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
         <v>47</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>8175240</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
         <v>47</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>-2582</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="55" t="s">
         <v>47</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>47</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>19875</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
         <v>47</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>-65504</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="55" t="s">
         <v>47</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>11873</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="55" t="s">
         <v>47</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>699086</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
         <v>47</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>8069425</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="55" t="s">
         <v>47</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>-22199</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="55" t="s">
         <v>47</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="55" t="s">
         <v>47</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="55" t="s">
         <v>47</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>21179</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="55" t="s">
         <v>47</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>-499</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>47</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>-88607</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
         <v>47</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>-17793</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>47</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>-7190</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="73"/>
       <c r="C99" s="53"/>
@@ -9275,7 +9275,7 @@
       <c r="Y99" s="53"/>
       <c r="Z99" s="53"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>177</v>
       </c>
@@ -9304,7 +9304,7 @@
       <c r="Y100" s="74"/>
       <c r="Z100" s="74"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>178</v>
       </c>
@@ -9333,7 +9333,7 @@
       <c r="Y101" s="74"/>
       <c r="Z101" s="74"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>179</v>
       </c>
@@ -9362,7 +9362,7 @@
       <c r="Y102" s="74"/>
       <c r="Z102" s="74"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>180</v>
       </c>
@@ -9391,7 +9391,7 @@
       <c r="Y103" s="74"/>
       <c r="Z103" s="74"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>181</v>
       </c>
@@ -9420,7 +9420,7 @@
       <c r="Y104" s="74"/>
       <c r="Z104" s="74"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C105" s="74"/>
       <c r="D105" s="74"/>
       <c r="E105" s="74"/>
@@ -9446,7 +9446,7 @@
       <c r="Y105" s="74"/>
       <c r="Z105" s="74"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -9473,7 +9473,7 @@
       <c r="Y106" s="74"/>
       <c r="Z106" s="74"/>
     </row>
-    <row r="107" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
         <v>182</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="Y107" s="74"/>
       <c r="Z107" s="74"/>
     </row>
-    <row r="108" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="76"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
@@ -9529,7 +9529,7 @@
       <c r="Y108" s="74"/>
       <c r="Z108" s="74"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>184</v>
       </c>
@@ -9558,7 +9558,7 @@
       <c r="Y109" s="74"/>
       <c r="Z109" s="74"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>185</v>
       </c>
@@ -9587,7 +9587,7 @@
       <c r="Y110" s="74"/>
       <c r="Z110" s="74"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B111" s="78" t="s">
         <v>186</v>
       </c>
@@ -9616,7 +9616,7 @@
       <c r="Y111" s="74"/>
       <c r="Z111" s="74"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>183</v>
       </c>
@@ -9645,7 +9645,7 @@
       <c r="Y112" s="74"/>
       <c r="Z112" s="74"/>
     </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
@@ -9672,7 +9672,7 @@
       <c r="Y113" s="74"/>
       <c r="Z113" s="74"/>
     </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="74"/>
       <c r="D114" s="74"/>
@@ -9701,11 +9701,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BC7AA853-D3BB-4660-A3F0-4D149023D4CF}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2867DF4B-B58C-4436-83B5-3B20E0D3BB24}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C719C5E2-3BDF-46FF-A2AB-89D7D52B5450}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{D524CC20-2C7A-4D68-8BD8-7E0BEE70C328}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{22278676-CC70-40DD-B060-DB5CB33F0194}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F0D445FA-67C7-4B0B-AD61-F50A6F78B932}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{ACC7BFA7-FE88-48E2-A985-6D08E44C345F}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{B8DE3710-412D-4D77-A209-78C8D2CC973D}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{923CF999-EA6A-476F-A668-03845BB7606D}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E47FD590-2646-44BE-B72C-B90DDF5BDDEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab37.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab37.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A567E1BD-0033-44D4-90CC-4A5848E73216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7370586B-9236-49B8-8A0D-ED778C87074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{443F66D1-0D37-4AD0-9FCC-061AE55B5A1F}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E10A0BAC-4DE8-4405-B489-909EC836F857}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab37" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,13 +733,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -903,7 +896,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,10 +1116,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1442,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1A89B5-A6B4-4CE0-A3BF-13D8F6C8CBC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36487BB2-4A76-45CF-9E01-03A15353F532}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1467,7 +1459,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1479,7 +1471,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="T1" s="5"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -1509,7 +1501,7 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -1545,7 +1537,7 @@
       <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="U2" s="9" t="s">
@@ -1589,7 +1581,7 @@
       <c r="G3" s="14">
         <v>153016</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>58083</v>
       </c>
       <c r="I3" s="14">
@@ -1625,7 +1617,7 @@
       <c r="S3" s="14">
         <v>-35436</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="15">
         <v>-7227</v>
       </c>
       <c r="U3" s="14">
@@ -1669,7 +1661,7 @@
       <c r="G4" s="18">
         <v>3037</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="19">
         <v>3565</v>
       </c>
       <c r="I4" s="18">
@@ -1705,7 +1697,7 @@
       <c r="S4" s="18">
         <v>-4612</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="19">
         <v>-2278</v>
       </c>
       <c r="U4" s="18">
@@ -1749,7 +1741,7 @@
       <c r="G5" s="22">
         <v>1559</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="23">
         <v>1546</v>
       </c>
       <c r="I5" s="22">
@@ -1785,7 +1777,7 @@
       <c r="S5" s="22">
         <v>-1213</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="23">
         <v>-1024</v>
       </c>
       <c r="U5" s="22">
@@ -1829,7 +1821,7 @@
       <c r="G6" s="22">
         <v>496</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="23">
         <v>873</v>
       </c>
       <c r="I6" s="22">
@@ -1865,7 +1857,7 @@
       <c r="S6" s="22">
         <v>-1453</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="23">
         <v>-583</v>
       </c>
       <c r="U6" s="22">
@@ -1909,7 +1901,7 @@
       <c r="G7" s="22">
         <v>10684</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <v>10481</v>
       </c>
       <c r="I7" s="22">
@@ -1945,7 +1937,7 @@
       <c r="S7" s="22">
         <v>-3350</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="23">
         <v>-1568</v>
       </c>
       <c r="U7" s="22">
@@ -1989,7 +1981,7 @@
       <c r="G8" s="22">
         <v>51243</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="23">
         <v>25408</v>
       </c>
       <c r="I8" s="22">
@@ -2025,7 +2017,7 @@
       <c r="S8" s="22">
         <v>-14463</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="23">
         <v>-9632</v>
       </c>
       <c r="U8" s="22">
@@ -2069,7 +2061,7 @@
       <c r="G9" s="22">
         <v>3434</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="23">
         <v>3398</v>
       </c>
       <c r="I9" s="22">
@@ -2105,7 +2097,7 @@
       <c r="S9" s="22">
         <v>-2377</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="23">
         <v>-1611</v>
       </c>
       <c r="U9" s="22">
@@ -2149,7 +2141,7 @@
       <c r="G10" s="22">
         <v>337086</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>446811</v>
       </c>
       <c r="I10" s="22">
@@ -2185,7 +2177,7 @@
       <c r="S10" s="22">
         <v>77078</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="23">
         <v>68932</v>
       </c>
       <c r="U10" s="22">
@@ -2229,7 +2221,7 @@
       <c r="G11" s="18">
         <v>25758</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="19">
         <v>40432</v>
       </c>
       <c r="I11" s="18">
@@ -2265,7 +2257,7 @@
       <c r="S11" s="18">
         <v>-4223</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="19">
         <v>1151</v>
       </c>
       <c r="U11" s="18">
@@ -2309,7 +2301,7 @@
       <c r="G12" s="26">
         <v>117729</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="27">
         <v>143435</v>
       </c>
       <c r="I12" s="26">
@@ -2345,7 +2337,7 @@
       <c r="S12" s="26">
         <v>23668</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="27">
         <v>24416</v>
       </c>
       <c r="U12" s="26">
@@ -2389,7 +2381,7 @@
       <c r="G13" s="31">
         <v>704042</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="32">
         <v>734032</v>
       </c>
       <c r="I13" s="31">
@@ -2425,7 +2417,7 @@
       <c r="S13" s="31">
         <v>33619</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T13" s="32">
         <v>70576</v>
       </c>
       <c r="U13" s="31">
@@ -2469,7 +2461,7 @@
       <c r="G14" s="35">
         <v>21390</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="36">
         <v>14954</v>
       </c>
       <c r="I14" s="35">
@@ -2505,7 +2497,7 @@
       <c r="S14" s="35">
         <v>1587</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="36">
         <v>443</v>
       </c>
       <c r="U14" s="35">
@@ -2549,7 +2541,7 @@
       <c r="G15" s="22">
         <v>145365</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="23">
         <v>141694</v>
       </c>
       <c r="I15" s="22">
@@ -2585,7 +2577,7 @@
       <c r="S15" s="22">
         <v>40301</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="23">
         <v>60718</v>
       </c>
       <c r="U15" s="22">
@@ -2629,7 +2621,7 @@
       <c r="G16" s="22">
         <v>14796</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="23">
         <v>10027</v>
       </c>
       <c r="I16" s="22">
@@ -2665,7 +2657,7 @@
       <c r="S16" s="22">
         <v>1762</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="23">
         <v>2186</v>
       </c>
       <c r="U16" s="22">
@@ -2709,7 +2701,7 @@
       <c r="G17" s="39">
         <v>12154</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="40">
         <v>8196</v>
       </c>
       <c r="I17" s="39">
@@ -2745,7 +2737,7 @@
       <c r="S17" s="39">
         <v>253</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="40">
         <v>2779</v>
       </c>
       <c r="U17" s="39">
@@ -2789,7 +2781,7 @@
       <c r="G18" s="39">
         <v>95885</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="40">
         <v>57146</v>
       </c>
       <c r="I18" s="39">
@@ -2825,7 +2817,7 @@
       <c r="S18" s="39">
         <v>19831</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T18" s="40">
         <v>18795</v>
       </c>
       <c r="U18" s="39">
@@ -2869,7 +2861,7 @@
       <c r="G19" s="18">
         <v>192215</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="19">
         <v>113098</v>
       </c>
       <c r="I19" s="18">
@@ -2905,7 +2897,7 @@
       <c r="S19" s="18">
         <v>-9162</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="19">
         <v>1950</v>
       </c>
       <c r="U19" s="18">
@@ -2949,7 +2941,7 @@
       <c r="G20" s="39">
         <v>22276</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="40">
         <v>2788</v>
       </c>
       <c r="I20" s="39">
@@ -2985,7 +2977,7 @@
       <c r="S20" s="39">
         <v>6060</v>
       </c>
-      <c r="T20" s="39">
+      <c r="T20" s="40">
         <v>-3150</v>
       </c>
       <c r="U20" s="39">
@@ -3029,7 +3021,7 @@
       <c r="G21" s="39">
         <v>16458</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="40">
         <v>15593</v>
       </c>
       <c r="I21" s="39">
@@ -3065,7 +3057,7 @@
       <c r="S21" s="39">
         <v>4143</v>
       </c>
-      <c r="T21" s="39">
+      <c r="T21" s="40">
         <v>4025</v>
       </c>
       <c r="U21" s="39">
@@ -3109,7 +3101,7 @@
       <c r="G22" s="26">
         <v>13626</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="27">
         <v>3722</v>
       </c>
       <c r="I22" s="26">
@@ -3145,7 +3137,7 @@
       <c r="S22" s="26">
         <v>-3842</v>
       </c>
-      <c r="T22" s="26">
+      <c r="T22" s="27">
         <v>973</v>
       </c>
       <c r="U22" s="26">
@@ -3189,7 +3181,7 @@
       <c r="G23" s="31">
         <v>534165</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="32">
         <v>367218</v>
       </c>
       <c r="I23" s="31">
@@ -3225,7 +3217,7 @@
       <c r="S23" s="31">
         <v>60933</v>
       </c>
-      <c r="T23" s="31">
+      <c r="T23" s="32">
         <v>88719</v>
       </c>
       <c r="U23" s="31">
@@ -3269,7 +3261,7 @@
       <c r="G24" s="35">
         <v>43447</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="36">
         <v>11038</v>
       </c>
       <c r="I24" s="35">
@@ -3305,7 +3297,7 @@
       <c r="S24" s="35">
         <v>-21374</v>
       </c>
-      <c r="T24" s="35">
+      <c r="T24" s="36">
         <v>-122</v>
       </c>
       <c r="U24" s="35">
@@ -3349,7 +3341,7 @@
       <c r="G25" s="22">
         <v>7939</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="23">
         <v>5405</v>
       </c>
       <c r="I25" s="22">
@@ -3385,7 +3377,7 @@
       <c r="S25" s="22">
         <v>2238</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="23">
         <v>1535</v>
       </c>
       <c r="U25" s="22">
@@ -3429,7 +3421,7 @@
       <c r="G26" s="22">
         <v>222057</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="23">
         <v>73864</v>
       </c>
       <c r="I26" s="22">
@@ -3465,7 +3457,7 @@
       <c r="S26" s="22">
         <v>117130</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="23">
         <v>44623</v>
       </c>
       <c r="U26" s="22">
@@ -3509,7 +3501,7 @@
       <c r="G27" s="22">
         <v>466346</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="23">
         <v>231190</v>
       </c>
       <c r="I27" s="22">
@@ -3545,7 +3537,7 @@
       <c r="S27" s="22">
         <v>106856</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="23">
         <v>116157</v>
       </c>
       <c r="U27" s="22">
@@ -3589,7 +3581,7 @@
       <c r="G28" s="22">
         <v>167600</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="23">
         <v>212673</v>
       </c>
       <c r="I28" s="22">
@@ -3625,7 +3617,7 @@
       <c r="S28" s="22">
         <v>15218</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="23">
         <v>55971</v>
       </c>
       <c r="U28" s="22">
@@ -3669,7 +3661,7 @@
       <c r="G29" s="22">
         <v>92622</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="23">
         <v>53433</v>
       </c>
       <c r="I29" s="22">
@@ -3705,7 +3697,7 @@
       <c r="S29" s="22">
         <v>9590</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="23">
         <v>7323</v>
       </c>
       <c r="U29" s="22">
@@ -3749,7 +3741,7 @@
       <c r="G30" s="22">
         <v>95612</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="23">
         <v>61065</v>
       </c>
       <c r="I30" s="22">
@@ -3785,7 +3777,7 @@
       <c r="S30" s="22">
         <v>1047</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="23">
         <v>8590</v>
       </c>
       <c r="U30" s="22">
@@ -3829,7 +3821,7 @@
       <c r="G31" s="22">
         <v>25561</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="23">
         <v>21297</v>
       </c>
       <c r="I31" s="22">
@@ -3865,7 +3857,7 @@
       <c r="S31" s="22">
         <v>-841</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="23">
         <v>2324</v>
       </c>
       <c r="U31" s="22">
@@ -3909,7 +3901,7 @@
       <c r="G32" s="22">
         <v>6850</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="23">
         <v>2556</v>
       </c>
       <c r="I32" s="22">
@@ -3945,7 +3937,7 @@
       <c r="S32" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T32" s="22" t="s">
+      <c r="T32" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U32" s="22" t="s">
@@ -3989,7 +3981,7 @@
       <c r="G33" s="22">
         <v>574548</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="23">
         <v>147246</v>
       </c>
       <c r="I33" s="22">
@@ -4025,7 +4017,7 @@
       <c r="S33" s="22">
         <v>131276</v>
       </c>
-      <c r="T33" s="22">
+      <c r="T33" s="23">
         <v>76395</v>
       </c>
       <c r="U33" s="22">
@@ -4069,7 +4061,7 @@
       <c r="G34" s="39">
         <v>22532</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="40">
         <v>17459</v>
       </c>
       <c r="I34" s="39">
@@ -4105,7 +4097,7 @@
       <c r="S34" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="T34" s="39" t="s">
+      <c r="T34" s="40" t="s">
         <v>86</v>
       </c>
       <c r="U34" s="39" t="s">
@@ -4149,7 +4141,7 @@
       <c r="G35" s="22">
         <v>585487</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="23">
         <v>200925</v>
       </c>
       <c r="I35" s="22">
@@ -4185,7 +4177,7 @@
       <c r="S35" s="22">
         <v>134812</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="23">
         <v>90415</v>
       </c>
       <c r="U35" s="22">
@@ -4229,7 +4221,7 @@
       <c r="G36" s="22">
         <v>47227</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="23">
         <v>57856</v>
       </c>
       <c r="I36" s="22">
@@ -4265,7 +4257,7 @@
       <c r="S36" s="22">
         <v>344</v>
       </c>
-      <c r="T36" s="22">
+      <c r="T36" s="23">
         <v>4811</v>
       </c>
       <c r="U36" s="22">
@@ -4309,7 +4301,7 @@
       <c r="G37" s="26">
         <v>91204</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="27">
         <v>81406</v>
       </c>
       <c r="I37" s="26">
@@ -4345,7 +4337,7 @@
       <c r="S37" s="26">
         <v>1591</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37" s="27">
         <v>4991</v>
       </c>
       <c r="U37" s="26">
@@ -4389,7 +4381,7 @@
       <c r="G38" s="31">
         <v>2449032</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="32">
         <v>1177413</v>
       </c>
       <c r="I38" s="31">
@@ -4425,7 +4417,7 @@
       <c r="S38" s="31">
         <v>497887</v>
       </c>
-      <c r="T38" s="31">
+      <c r="T38" s="32">
         <v>413013</v>
       </c>
       <c r="U38" s="31">
@@ -4469,7 +4461,7 @@
       <c r="G39" s="14">
         <v>1200326</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="15">
         <v>479254</v>
       </c>
       <c r="I39" s="14">
@@ -4505,7 +4497,7 @@
       <c r="S39" s="14">
         <v>-71173</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="15">
         <v>84324</v>
       </c>
       <c r="U39" s="14">
@@ -4549,7 +4541,7 @@
       <c r="G40" s="22">
         <v>2203376</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>1016609</v>
       </c>
       <c r="I40" s="22">
@@ -4585,7 +4577,7 @@
       <c r="S40" s="22">
         <v>336063</v>
       </c>
-      <c r="T40" s="22">
+      <c r="T40" s="23">
         <v>467238</v>
       </c>
       <c r="U40" s="22">
@@ -4629,7 +4621,7 @@
       <c r="G41" s="39">
         <v>91555</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="40">
         <v>51106</v>
       </c>
       <c r="I41" s="39">
@@ -4665,7 +4657,7 @@
       <c r="S41" s="39">
         <v>13903</v>
       </c>
-      <c r="T41" s="39">
+      <c r="T41" s="40">
         <v>8754</v>
       </c>
       <c r="U41" s="39">
@@ -4709,7 +4701,7 @@
       <c r="G42" s="39">
         <v>27861</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="40">
         <v>7588</v>
       </c>
       <c r="I42" s="39">
@@ -4745,7 +4737,7 @@
       <c r="S42" s="39">
         <v>-913</v>
       </c>
-      <c r="T42" s="39">
+      <c r="T42" s="40">
         <v>1244</v>
       </c>
       <c r="U42" s="39">
@@ -4789,7 +4781,7 @@
       <c r="G43" s="22">
         <v>2476087</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="23">
         <v>625588</v>
       </c>
       <c r="I43" s="22">
@@ -4825,7 +4817,7 @@
       <c r="S43" s="22">
         <v>234006</v>
       </c>
-      <c r="T43" s="22">
+      <c r="T43" s="23">
         <v>135615</v>
       </c>
       <c r="U43" s="22">
@@ -4869,7 +4861,7 @@
       <c r="G44" s="26">
         <v>482639</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="27">
         <v>188190</v>
       </c>
       <c r="I44" s="26">
@@ -4905,7 +4897,7 @@
       <c r="S44" s="26">
         <v>-5167</v>
       </c>
-      <c r="T44" s="26">
+      <c r="T44" s="27">
         <v>49529</v>
       </c>
       <c r="U44" s="26">
@@ -4949,7 +4941,7 @@
       <c r="G45" s="31">
         <v>6481844</v>
       </c>
-      <c r="H45" s="31">
+      <c r="H45" s="32">
         <v>2368335</v>
       </c>
       <c r="I45" s="31">
@@ -4985,7 +4977,7 @@
       <c r="S45" s="31">
         <v>506719</v>
       </c>
-      <c r="T45" s="31">
+      <c r="T45" s="32">
         <v>746704</v>
       </c>
       <c r="U45" s="31">
@@ -5029,7 +5021,7 @@
       <c r="G46" s="35">
         <v>18286</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="36">
         <v>17746</v>
       </c>
       <c r="I46" s="35">
@@ -5065,7 +5057,7 @@
       <c r="S46" s="35">
         <v>106</v>
       </c>
-      <c r="T46" s="35">
+      <c r="T46" s="36">
         <v>2150</v>
       </c>
       <c r="U46" s="35">
@@ -5109,7 +5101,7 @@
       <c r="G47" s="22">
         <v>26066</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="23">
         <v>9393</v>
       </c>
       <c r="I47" s="22">
@@ -5145,7 +5137,7 @@
       <c r="S47" s="22">
         <v>483</v>
       </c>
-      <c r="T47" s="22">
+      <c r="T47" s="23">
         <v>731</v>
       </c>
       <c r="U47" s="22">
@@ -5189,7 +5181,7 @@
       <c r="G48" s="39">
         <v>131577</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H48" s="40">
         <v>31984</v>
       </c>
       <c r="I48" s="39">
@@ -5225,7 +5217,7 @@
       <c r="S48" s="39">
         <v>-5558</v>
       </c>
-      <c r="T48" s="39">
+      <c r="T48" s="40">
         <v>18028</v>
       </c>
       <c r="U48" s="39">
@@ -5269,7 +5261,7 @@
       <c r="G49" s="22">
         <v>145264</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="23">
         <v>78679</v>
       </c>
       <c r="I49" s="22">
@@ -5305,7 +5297,7 @@
       <c r="S49" s="22">
         <v>35692</v>
       </c>
-      <c r="T49" s="22">
+      <c r="T49" s="23">
         <v>29292</v>
       </c>
       <c r="U49" s="22">
@@ -5349,7 +5341,7 @@
       <c r="G50" s="22">
         <v>64259</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="23">
         <v>20587</v>
       </c>
       <c r="I50" s="22">
@@ -5385,7 +5377,7 @@
       <c r="S50" s="22">
         <v>16370</v>
       </c>
-      <c r="T50" s="22">
+      <c r="T50" s="23">
         <v>8656</v>
       </c>
       <c r="U50" s="22">
@@ -5429,7 +5421,7 @@
       <c r="G51" s="18">
         <v>253281</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="19">
         <v>215161</v>
       </c>
       <c r="I51" s="18">
@@ -5465,7 +5457,7 @@
       <c r="S51" s="18">
         <v>24495</v>
       </c>
-      <c r="T51" s="18">
+      <c r="T51" s="19">
         <v>81341</v>
       </c>
       <c r="U51" s="18">
@@ -5509,7 +5501,7 @@
       <c r="G52" s="22">
         <v>101904</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="23">
         <v>37538</v>
       </c>
       <c r="I52" s="22">
@@ -5545,7 +5537,7 @@
       <c r="S52" s="22">
         <v>37213</v>
       </c>
-      <c r="T52" s="22">
+      <c r="T52" s="23">
         <v>19901</v>
       </c>
       <c r="U52" s="22">
@@ -5589,7 +5581,7 @@
       <c r="G53" s="22">
         <v>35791</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="23">
         <v>8133</v>
       </c>
       <c r="I53" s="22">
@@ -5625,7 +5617,7 @@
       <c r="S53" s="22">
         <v>-3387</v>
       </c>
-      <c r="T53" s="22">
+      <c r="T53" s="23">
         <v>1386</v>
       </c>
       <c r="U53" s="22">
@@ -5669,7 +5661,7 @@
       <c r="G54" s="22">
         <v>59336</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="23">
         <v>63954</v>
       </c>
       <c r="I54" s="22">
@@ -5705,7 +5697,7 @@
       <c r="S54" s="22">
         <v>-399</v>
       </c>
-      <c r="T54" s="22">
+      <c r="T54" s="23">
         <v>29342</v>
       </c>
       <c r="U54" s="22">
@@ -5749,7 +5741,7 @@
       <c r="G55" s="22">
         <v>113749</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="23">
         <v>22563</v>
       </c>
       <c r="I55" s="22">
@@ -5785,7 +5777,7 @@
       <c r="S55" s="22">
         <v>18667</v>
       </c>
-      <c r="T55" s="22">
+      <c r="T55" s="23">
         <v>7308</v>
       </c>
       <c r="U55" s="22">
@@ -5829,7 +5821,7 @@
       <c r="G56" s="22">
         <v>8550</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="23">
         <v>6529</v>
       </c>
       <c r="I56" s="22">
@@ -5865,7 +5857,7 @@
       <c r="S56" s="22">
         <v>-419</v>
       </c>
-      <c r="T56" s="22">
+      <c r="T56" s="23">
         <v>932</v>
       </c>
       <c r="U56" s="22">
@@ -5909,7 +5901,7 @@
       <c r="G57" s="22">
         <v>387412</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="23">
         <v>531785</v>
       </c>
       <c r="I57" s="22">
@@ -5945,7 +5937,7 @@
       <c r="S57" s="22">
         <v>119363</v>
       </c>
-      <c r="T57" s="22">
+      <c r="T57" s="23">
         <v>179516</v>
       </c>
       <c r="U57" s="22">
@@ -5989,7 +5981,7 @@
       <c r="G58" s="22">
         <v>297357</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="23">
         <v>95441</v>
       </c>
       <c r="I58" s="22">
@@ -6025,7 +6017,7 @@
       <c r="S58" s="22">
         <v>81994</v>
       </c>
-      <c r="T58" s="22">
+      <c r="T58" s="23">
         <v>33917</v>
       </c>
       <c r="U58" s="22">
@@ -6069,7 +6061,7 @@
       <c r="G59" s="22">
         <v>44245</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="23">
         <v>49801</v>
       </c>
       <c r="I59" s="22">
@@ -6105,7 +6097,7 @@
       <c r="S59" s="22">
         <v>-5772</v>
       </c>
-      <c r="T59" s="22">
+      <c r="T59" s="23">
         <v>19264</v>
       </c>
       <c r="U59" s="22">
@@ -6149,7 +6141,7 @@
       <c r="G60" s="44">
         <v>55345</v>
       </c>
-      <c r="H60" s="44">
+      <c r="H60" s="45">
         <v>37887</v>
       </c>
       <c r="I60" s="44">
@@ -6185,7 +6177,7 @@
       <c r="S60" s="44">
         <v>12260</v>
       </c>
-      <c r="T60" s="44">
+      <c r="T60" s="45">
         <v>17507</v>
       </c>
       <c r="U60" s="44">
@@ -6229,7 +6221,7 @@
       <c r="G61" s="31">
         <v>1742422</v>
       </c>
-      <c r="H61" s="31">
+      <c r="H61" s="32">
         <v>1227181</v>
       </c>
       <c r="I61" s="31">
@@ -6265,7 +6257,7 @@
       <c r="S61" s="31">
         <v>331108</v>
       </c>
-      <c r="T61" s="31">
+      <c r="T61" s="32">
         <v>449271</v>
       </c>
       <c r="U61" s="31">
@@ -6309,7 +6301,7 @@
       <c r="G62" s="49">
         <v>11911505</v>
       </c>
-      <c r="H62" s="49">
+      <c r="H62" s="50">
         <v>5874179</v>
       </c>
       <c r="I62" s="49">
@@ -6345,7 +6337,7 @@
       <c r="S62" s="49">
         <v>1430266</v>
       </c>
-      <c r="T62" s="49">
+      <c r="T62" s="50">
         <v>1768283</v>
       </c>
       <c r="U62" s="49">
@@ -6389,7 +6381,7 @@
       <c r="G63" s="53">
         <v>34827778</v>
       </c>
-      <c r="H63" s="53">
+      <c r="H63" s="54">
         <v>31386935</v>
       </c>
       <c r="I63" s="53" t="s">
@@ -6425,7 +6417,7 @@
       <c r="S63" s="53">
         <v>3880604</v>
       </c>
-      <c r="T63" s="53">
+      <c r="T63" s="54">
         <v>6923867</v>
       </c>
       <c r="U63" s="53" t="s">
@@ -6469,7 +6461,7 @@
       <c r="G64" s="58">
         <v>6152444</v>
       </c>
-      <c r="H64" s="58">
+      <c r="H64" s="59">
         <v>4062856</v>
       </c>
       <c r="I64" s="58" t="s">
@@ -6505,7 +6497,7 @@
       <c r="S64" s="58">
         <v>541438</v>
       </c>
-      <c r="T64" s="58">
+      <c r="T64" s="59">
         <v>1345556</v>
       </c>
       <c r="U64" s="58" t="s">
@@ -6549,7 +6541,7 @@
       <c r="G65" s="61">
         <v>18683572</v>
       </c>
-      <c r="H65" s="61">
+      <c r="H65" s="62">
         <v>16204097</v>
       </c>
       <c r="I65" s="61" t="s">
@@ -6585,7 +6577,7 @@
       <c r="S65" s="61">
         <v>4615282</v>
       </c>
-      <c r="T65" s="61">
+      <c r="T65" s="62">
         <v>4870311</v>
       </c>
       <c r="U65" s="61" t="s">
@@ -6629,7 +6621,7 @@
       <c r="G66" s="65">
         <v>46739283</v>
       </c>
-      <c r="H66" s="65">
+      <c r="H66" s="66">
         <v>37261114</v>
       </c>
       <c r="I66" s="65">
@@ -6665,7 +6657,7 @@
       <c r="S66" s="65">
         <v>5310870</v>
       </c>
-      <c r="T66" s="65">
+      <c r="T66" s="66">
         <v>8692150</v>
       </c>
       <c r="U66" s="65">
@@ -6709,7 +6701,7 @@
       <c r="G67" s="61">
         <v>5526178</v>
       </c>
-      <c r="H67" s="61">
+      <c r="H67" s="62">
         <v>2681949</v>
       </c>
       <c r="I67" s="61">
@@ -6745,7 +6737,7 @@
       <c r="S67" s="61">
         <v>849649</v>
       </c>
-      <c r="T67" s="61">
+      <c r="T67" s="62">
         <v>959091</v>
       </c>
       <c r="U67" s="61">
@@ -6789,7 +6781,7 @@
       <c r="G68" s="61">
         <v>8293455</v>
       </c>
-      <c r="H68" s="61">
+      <c r="H68" s="62">
         <v>3477025</v>
       </c>
       <c r="I68" s="61">
@@ -6825,7 +6817,7 @@
       <c r="S68" s="61">
         <v>1281054</v>
       </c>
-      <c r="T68" s="61">
+      <c r="T68" s="62">
         <v>1282092</v>
       </c>
       <c r="U68" s="61">
@@ -6869,7 +6861,7 @@
       <c r="G69" s="61">
         <v>567729</v>
       </c>
-      <c r="H69" s="61">
+      <c r="H69" s="62">
         <v>518743</v>
       </c>
       <c r="I69" s="61">
@@ -6905,7 +6897,7 @@
       <c r="S69" s="61">
         <v>8737</v>
       </c>
-      <c r="T69" s="61">
+      <c r="T69" s="62">
         <v>70490</v>
       </c>
       <c r="U69" s="61">
@@ -6949,7 +6941,7 @@
       <c r="G70" s="61">
         <v>712742</v>
       </c>
-      <c r="H70" s="61">
+      <c r="H70" s="62">
         <v>446598</v>
       </c>
       <c r="I70" s="61">
@@ -6985,7 +6977,7 @@
       <c r="S70" s="61">
         <v>24656</v>
       </c>
-      <c r="T70" s="61">
+      <c r="T70" s="62">
         <v>83816</v>
       </c>
       <c r="U70" s="61">
@@ -7029,7 +7021,7 @@
       <c r="G71" s="61">
         <v>1742422</v>
       </c>
-      <c r="H71" s="61">
+      <c r="H71" s="62">
         <v>1227181</v>
       </c>
       <c r="I71" s="61">
@@ -7065,7 +7057,7 @@
       <c r="S71" s="61">
         <v>331108</v>
       </c>
-      <c r="T71" s="61">
+      <c r="T71" s="62">
         <v>449271</v>
       </c>
       <c r="U71" s="61">
@@ -7109,7 +7101,7 @@
       <c r="G72" s="61">
         <v>1915656</v>
       </c>
-      <c r="H72" s="61">
+      <c r="H72" s="62">
         <v>896304</v>
       </c>
       <c r="I72" s="61">
@@ -7145,7 +7137,7 @@
       <c r="S72" s="61">
         <v>391991</v>
       </c>
-      <c r="T72" s="61">
+      <c r="T72" s="62">
         <v>345464</v>
       </c>
       <c r="U72" s="61">
@@ -7189,7 +7181,7 @@
       <c r="G73" s="61">
         <v>1182015</v>
       </c>
-      <c r="H73" s="61">
+      <c r="H73" s="62">
         <v>1033078</v>
       </c>
       <c r="I73" s="61">
@@ -7225,7 +7217,7 @@
       <c r="S73" s="61">
         <v>14064</v>
       </c>
-      <c r="T73" s="61">
+      <c r="T73" s="62">
         <v>93128</v>
       </c>
       <c r="U73" s="61">
@@ -7269,7 +7261,7 @@
       <c r="G74" s="61">
         <v>4278468</v>
       </c>
-      <c r="H74" s="61">
+      <c r="H74" s="62">
         <v>1351726</v>
       </c>
       <c r="I74" s="61">
@@ -7305,7 +7297,7 @@
       <c r="S74" s="61">
         <v>170656</v>
       </c>
-      <c r="T74" s="61">
+      <c r="T74" s="62">
         <v>279466</v>
       </c>
       <c r="U74" s="61">
@@ -7349,7 +7341,7 @@
       <c r="G75" s="53">
         <v>385253</v>
       </c>
-      <c r="H75" s="53">
+      <c r="H75" s="54">
         <v>127330</v>
       </c>
       <c r="I75" s="53">
@@ -7385,7 +7377,7 @@
       <c r="S75" s="53">
         <v>-62686</v>
       </c>
-      <c r="T75" s="53">
+      <c r="T75" s="54">
         <v>3528</v>
       </c>
       <c r="U75" s="53">
@@ -7429,7 +7421,7 @@
       <c r="G76" s="69">
         <v>3973085</v>
       </c>
-      <c r="H76" s="69">
+      <c r="H76" s="70">
         <v>4238963</v>
       </c>
       <c r="I76" s="69" t="s">
@@ -7465,7 +7457,7 @@
       <c r="S76" s="69">
         <v>-69538</v>
       </c>
-      <c r="T76" s="69">
+      <c r="T76" s="70">
         <v>1001114</v>
       </c>
       <c r="U76" s="69" t="s">
@@ -7509,7 +7501,7 @@
       <c r="G77" s="61">
         <v>4937201</v>
       </c>
-      <c r="H77" s="61">
+      <c r="H77" s="62">
         <v>3549429</v>
       </c>
       <c r="I77" s="61" t="s">
@@ -7545,7 +7537,7 @@
       <c r="S77" s="61">
         <v>130624</v>
       </c>
-      <c r="T77" s="61">
+      <c r="T77" s="62">
         <v>1195368</v>
       </c>
       <c r="U77" s="61" t="s">
@@ -7589,7 +7581,7 @@
       <c r="G78" s="61">
         <v>4093463</v>
       </c>
-      <c r="H78" s="61">
+      <c r="H78" s="62">
         <v>3701180</v>
       </c>
       <c r="I78" s="61" t="s">
@@ -7625,7 +7617,7 @@
       <c r="S78" s="61">
         <v>-703179</v>
       </c>
-      <c r="T78" s="61">
+      <c r="T78" s="62">
         <v>313355</v>
       </c>
       <c r="U78" s="61" t="s">
@@ -7669,7 +7661,7 @@
       <c r="G79" s="65">
         <v>8719599</v>
       </c>
-      <c r="H79" s="65">
+      <c r="H79" s="66">
         <v>9273311</v>
       </c>
       <c r="I79" s="65" t="s">
@@ -7705,7 +7697,7 @@
       <c r="S79" s="65">
         <v>-791711</v>
       </c>
-      <c r="T79" s="65">
+      <c r="T79" s="66">
         <v>955427</v>
       </c>
       <c r="U79" s="65" t="s">
@@ -7749,7 +7741,7 @@
       <c r="G80" s="61">
         <v>1773640</v>
       </c>
-      <c r="H80" s="61">
+      <c r="H80" s="62">
         <v>729197</v>
       </c>
       <c r="I80" s="61">
@@ -7785,7 +7777,7 @@
       <c r="S80" s="61">
         <v>-68890</v>
       </c>
-      <c r="T80" s="61">
+      <c r="T80" s="62">
         <v>127572</v>
       </c>
       <c r="U80" s="61">
@@ -7829,7 +7821,7 @@
       <c r="G81" s="61">
         <v>5582411</v>
       </c>
-      <c r="H81" s="61">
+      <c r="H81" s="62">
         <v>3931747</v>
       </c>
       <c r="I81" s="61" t="s">
@@ -7865,7 +7857,7 @@
       <c r="S81" s="61">
         <v>216530</v>
       </c>
-      <c r="T81" s="61">
+      <c r="T81" s="62">
         <v>718565</v>
       </c>
       <c r="U81" s="61" t="s">
@@ -7909,7 +7901,7 @@
       <c r="G82" s="61">
         <v>10137865</v>
       </c>
-      <c r="H82" s="61">
+      <c r="H82" s="62">
         <v>5144982</v>
       </c>
       <c r="I82" s="61">
@@ -7945,7 +7937,7 @@
       <c r="S82" s="61">
         <v>1499156</v>
       </c>
-      <c r="T82" s="61">
+      <c r="T82" s="62">
         <v>1640711</v>
       </c>
       <c r="U82" s="61">
@@ -7989,7 +7981,7 @@
       <c r="G83" s="53">
         <v>29245367</v>
       </c>
-      <c r="H83" s="53">
+      <c r="H83" s="54">
         <v>27455188</v>
       </c>
       <c r="I83" s="53" t="s">
@@ -8025,7 +8017,7 @@
       <c r="S83" s="53">
         <v>3664074</v>
       </c>
-      <c r="T83" s="53">
+      <c r="T83" s="54">
         <v>6205302</v>
       </c>
       <c r="U83" s="53" t="s">
@@ -8069,7 +8061,7 @@
       <c r="G84" s="69">
         <v>2790180</v>
       </c>
-      <c r="H84" s="69">
+      <c r="H84" s="70">
         <v>1227831</v>
       </c>
       <c r="I84" s="69">
@@ -8105,7 +8097,7 @@
       <c r="S84" s="69">
         <v>514844</v>
       </c>
-      <c r="T84" s="69">
+      <c r="T84" s="70">
         <v>423512</v>
       </c>
       <c r="U84" s="69">
@@ -8149,7 +8141,7 @@
       <c r="G85" s="61">
         <v>4287276</v>
       </c>
-      <c r="H85" s="61">
+      <c r="H85" s="62">
         <v>1234546</v>
       </c>
       <c r="I85" s="61" t="s">
@@ -8185,7 +8177,7 @@
       <c r="S85" s="61">
         <v>3594535</v>
       </c>
-      <c r="T85" s="61">
+      <c r="T85" s="62">
         <v>990945</v>
       </c>
       <c r="U85" s="61" t="s">
@@ -8229,7 +8221,7 @@
       <c r="G86" s="61">
         <v>8545017</v>
       </c>
-      <c r="H86" s="61">
+      <c r="H86" s="62">
         <v>4059466</v>
       </c>
       <c r="I86" s="61">
@@ -8265,7 +8257,7 @@
       <c r="S86" s="61">
         <v>820180</v>
       </c>
-      <c r="T86" s="61">
+      <c r="T86" s="62">
         <v>1261509</v>
       </c>
       <c r="U86" s="61">
@@ -8309,7 +8301,7 @@
       <c r="G87" s="61">
         <v>11002801</v>
       </c>
-      <c r="H87" s="61">
+      <c r="H87" s="62">
         <v>11341024</v>
       </c>
       <c r="I87" s="61" t="s">
@@ -8345,7 +8337,7 @@
       <c r="S87" s="61">
         <v>575532</v>
       </c>
-      <c r="T87" s="61">
+      <c r="T87" s="62">
         <v>2747401</v>
       </c>
       <c r="U87" s="61" t="s">
@@ -8389,7 +8381,7 @@
       <c r="G88" s="61">
         <v>569458</v>
       </c>
-      <c r="H88" s="61">
+      <c r="H88" s="62">
         <v>584326</v>
       </c>
       <c r="I88" s="61">
@@ -8425,7 +8417,7 @@
       <c r="S88" s="61">
         <v>95242</v>
       </c>
-      <c r="T88" s="61">
+      <c r="T88" s="62">
         <v>83262</v>
       </c>
       <c r="U88" s="61">
@@ -8469,7 +8461,7 @@
       <c r="G89" s="61">
         <v>10485037</v>
       </c>
-      <c r="H89" s="61">
+      <c r="H89" s="62">
         <v>8979531</v>
       </c>
       <c r="I89" s="61" t="s">
@@ -8505,7 +8497,7 @@
       <c r="S89" s="61">
         <v>333768</v>
       </c>
-      <c r="T89" s="61">
+      <c r="T89" s="62">
         <v>2082218</v>
       </c>
       <c r="U89" s="61" t="s">
@@ -8549,7 +8541,7 @@
       <c r="G90" s="65">
         <v>8518896</v>
       </c>
-      <c r="H90" s="65">
+      <c r="H90" s="66">
         <v>9255873</v>
       </c>
       <c r="I90" s="65">
@@ -8585,7 +8577,7 @@
       <c r="S90" s="65">
         <v>-934570</v>
       </c>
-      <c r="T90" s="65">
+      <c r="T90" s="66">
         <v>786627</v>
       </c>
       <c r="U90" s="65" t="s">
@@ -8629,7 +8621,7 @@
       <c r="G91" s="61">
         <v>3527097</v>
       </c>
-      <c r="H91" s="61">
+      <c r="H91" s="62">
         <v>1563553</v>
       </c>
       <c r="I91" s="61">
@@ -8665,7 +8657,7 @@
       <c r="S91" s="61">
         <v>569498</v>
       </c>
-      <c r="T91" s="61">
+      <c r="T91" s="62">
         <v>481262</v>
       </c>
       <c r="U91" s="61">
@@ -8709,7 +8701,7 @@
       <c r="G92" s="61">
         <v>2115817</v>
       </c>
-      <c r="H92" s="61">
+      <c r="H92" s="62">
         <v>1051543</v>
       </c>
       <c r="I92" s="61" t="s">
@@ -8745,7 +8737,7 @@
       <c r="S92" s="61">
         <v>552651</v>
       </c>
-      <c r="T92" s="61">
+      <c r="T92" s="62">
         <v>408654</v>
       </c>
       <c r="U92" s="61" t="s">
@@ -8789,7 +8781,7 @@
       <c r="G93" s="61">
         <v>326903</v>
       </c>
-      <c r="H93" s="61">
+      <c r="H93" s="62">
         <v>118498</v>
       </c>
       <c r="I93" s="61">
@@ -8825,7 +8817,7 @@
       <c r="S93" s="61">
         <v>-33114</v>
       </c>
-      <c r="T93" s="61">
+      <c r="T93" s="62">
         <v>28855</v>
       </c>
       <c r="U93" s="61">
@@ -8869,7 +8861,7 @@
       <c r="G94" s="61">
         <v>1480951</v>
       </c>
-      <c r="H94" s="61">
+      <c r="H94" s="62">
         <v>735730</v>
       </c>
       <c r="I94" s="61" t="s">
@@ -8905,7 +8897,7 @@
       <c r="S94" s="61">
         <v>157134</v>
       </c>
-      <c r="T94" s="61">
+      <c r="T94" s="62">
         <v>163443</v>
       </c>
       <c r="U94" s="61" t="s">
@@ -8949,7 +8941,7 @@
       <c r="G95" s="61">
         <v>961611</v>
       </c>
-      <c r="H95" s="61">
+      <c r="H95" s="62">
         <v>623346</v>
       </c>
       <c r="I95" s="61">
@@ -8985,7 +8977,7 @@
       <c r="S95" s="61">
         <v>138756</v>
       </c>
-      <c r="T95" s="61">
+      <c r="T95" s="62">
         <v>157965</v>
       </c>
       <c r="U95" s="61">
@@ -9029,7 +9021,7 @@
       <c r="G96" s="53">
         <v>3902152</v>
       </c>
-      <c r="H96" s="53">
+      <c r="H96" s="54">
         <v>1799994</v>
       </c>
       <c r="I96" s="53" t="s">
@@ -9065,7 +9057,7 @@
       <c r="S96" s="53">
         <v>-15491</v>
       </c>
-      <c r="T96" s="53">
+      <c r="T96" s="54">
         <v>290450</v>
       </c>
       <c r="U96" s="53" t="s">
@@ -9109,7 +9101,7 @@
       <c r="G97" s="69">
         <v>2591174</v>
       </c>
-      <c r="H97" s="69">
+      <c r="H97" s="70">
         <v>2007761</v>
       </c>
       <c r="I97" s="69">
@@ -9145,7 +9137,7 @@
       <c r="S97" s="69">
         <v>364811</v>
       </c>
-      <c r="T97" s="69">
+      <c r="T97" s="70">
         <v>584468</v>
       </c>
       <c r="U97" s="69">
@@ -9189,7 +9181,7 @@
       <c r="G98" s="65">
         <v>3582556</v>
       </c>
-      <c r="H98" s="65">
+      <c r="H98" s="66">
         <v>2917128</v>
       </c>
       <c r="I98" s="65" t="s">
@@ -9225,7 +9217,7 @@
       <c r="S98" s="65">
         <v>413349</v>
       </c>
-      <c r="T98" s="65">
+      <c r="T98" s="66">
         <v>877829</v>
       </c>
       <c r="U98" s="65" t="s">
@@ -9447,7 +9439,6 @@
       <c r="Z105" s="74"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
       <c r="E106" s="74"/>
@@ -9474,7 +9465,7 @@
       <c r="Z106" s="74"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="75" t="s">
         <v>182</v>
       </c>
       <c r="C107" s="74"/>
@@ -9503,7 +9494,7 @@
       <c r="Z107" s="74"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="76"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
       <c r="E108" s="74"/>
@@ -9588,7 +9579,7 @@
       <c r="Z110" s="74"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="76" t="s">
         <v>186</v>
       </c>
       <c r="C111" s="74"/>
@@ -9617,7 +9608,7 @@
       <c r="Z111" s="74"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>183</v>
       </c>
       <c r="C112" s="74"/>
@@ -9701,11 +9692,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F0D445FA-67C7-4B0B-AD61-F50A6F78B932}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{ACC7BFA7-FE88-48E2-A985-6D08E44C345F}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{B8DE3710-412D-4D77-A209-78C8D2CC973D}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{923CF999-EA6A-476F-A668-03845BB7606D}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{E47FD590-2646-44BE-B72C-B90DDF5BDDEE}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{12DEAC79-F8C9-47E4-90A3-1B0113C8F73D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{927D22B6-4DF2-4FB6-99E5-1962399C180E}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{936BEA10-9241-4543-83C2-381636400EBC}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{35A89C32-E65F-4D17-A867-8684D4D5268B}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{88419A15-06CB-48E2-886F-51798833BA13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab37.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab37.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7370586B-9236-49B8-8A0D-ED778C87074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{603A8599-7176-404E-8F79-72DC24955188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E10A0BAC-4DE8-4405-B489-909EC836F857}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D989B415-1D1F-402F-85FD-9A699163A7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab37" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="189">
   <si>
     <t>Tableau 37 : Migrants selon leur niveau d’éducation</t>
   </si>
@@ -504,13 +504,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -765,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -890,13 +896,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1094,7 +1137,10 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1105,6 +1151,12 @@
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1434,7 +1486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36487BB2-4A76-45CF-9E01-03A15353F532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE27075-3C34-461F-8597-AD01CA35F621}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1446,7 +1498,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6683,7 +6735,7 @@
       <c r="A67" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="67" t="s">
         <v>147</v>
       </c>
       <c r="C67" s="60">
@@ -6763,7 +6815,7 @@
       <c r="A68" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="67" t="s">
         <v>148</v>
       </c>
       <c r="C68" s="60">
@@ -6843,7 +6895,7 @@
       <c r="A69" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="67" t="s">
         <v>149</v>
       </c>
       <c r="C69" s="60">
@@ -6923,7 +6975,7 @@
       <c r="A70" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="67" t="s">
         <v>150</v>
       </c>
       <c r="C70" s="60">
@@ -7003,7 +7055,7 @@
       <c r="A71" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="67" t="s">
         <v>151</v>
       </c>
       <c r="C71" s="60">
@@ -7083,7 +7135,7 @@
       <c r="A72" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="67" t="s">
         <v>152</v>
       </c>
       <c r="C72" s="60">
@@ -7163,7 +7215,7 @@
       <c r="A73" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="67" t="s">
         <v>153</v>
       </c>
       <c r="C73" s="60">
@@ -7243,8 +7295,8 @@
       <c r="A74" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="51" t="s">
-        <v>153</v>
+      <c r="B74" s="67" t="s">
+        <v>154</v>
       </c>
       <c r="C74" s="60">
         <v>164016</v>
@@ -7323,8 +7375,8 @@
       <c r="A75" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B75" s="51" t="s">
-        <v>154</v>
+      <c r="B75" s="67" t="s">
+        <v>155</v>
       </c>
       <c r="C75" s="52">
         <v>655066</v>
@@ -7403,79 +7455,79 @@
       <c r="A76" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" s="69">
+      <c r="B76" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="70">
         <v>11081283</v>
       </c>
-      <c r="F76" s="69">
+      <c r="F76" s="70">
         <v>1772162</v>
       </c>
-      <c r="G76" s="69">
+      <c r="G76" s="70">
         <v>3973085</v>
       </c>
-      <c r="H76" s="70">
+      <c r="H76" s="71">
         <v>4238963</v>
       </c>
-      <c r="I76" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="J76" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="K76" s="69">
+      <c r="I76" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="J76" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="K76" s="70">
         <v>7717800</v>
       </c>
-      <c r="L76" s="69">
+      <c r="L76" s="70">
         <v>527961</v>
       </c>
-      <c r="M76" s="69">
+      <c r="M76" s="70">
         <v>711256</v>
       </c>
-      <c r="N76" s="70">
+      <c r="N76" s="71">
         <v>120500</v>
       </c>
-      <c r="O76" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="P76" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q76" s="69">
+      <c r="O76" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="P76" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q76" s="70">
         <v>2135803</v>
       </c>
-      <c r="R76" s="69">
+      <c r="R76" s="70">
         <v>704917</v>
       </c>
-      <c r="S76" s="69">
+      <c r="S76" s="70">
         <v>-69538</v>
       </c>
-      <c r="T76" s="70">
+      <c r="T76" s="71">
         <v>1001114</v>
       </c>
-      <c r="U76" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="V76" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="W76" s="69">
+      <c r="U76" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="V76" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="W76" s="70">
         <v>856822</v>
       </c>
-      <c r="X76" s="69">
+      <c r="X76" s="70">
         <v>-54704</v>
       </c>
-      <c r="Y76" s="69">
+      <c r="Y76" s="70">
         <v>545539</v>
       </c>
-      <c r="Z76" s="70">
+      <c r="Z76" s="71">
         <v>-119720</v>
       </c>
     </row>
@@ -7483,8 +7535,8 @@
       <c r="A77" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="51" t="s">
-        <v>156</v>
+      <c r="B77" s="67" t="s">
+        <v>157</v>
       </c>
       <c r="C77" s="60" t="s">
         <v>86</v>
@@ -7563,8 +7615,8 @@
       <c r="A78" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="51" t="s">
-        <v>156</v>
+      <c r="B78" s="67" t="s">
+        <v>158</v>
       </c>
       <c r="C78" s="60" t="s">
         <v>86</v>
@@ -7643,8 +7695,8 @@
       <c r="A79" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="63" t="s">
-        <v>157</v>
+      <c r="B79" s="72" t="s">
+        <v>159</v>
       </c>
       <c r="C79" s="64" t="s">
         <v>86</v>
@@ -7724,7 +7776,7 @@
         <v>47</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C80" s="60">
         <v>1731294</v>
@@ -7804,7 +7856,7 @@
         <v>47</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" s="60" t="s">
         <v>86</v>
@@ -7884,7 +7936,7 @@
         <v>47</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C82" s="60">
         <v>10570733</v>
@@ -7964,7 +8016,7 @@
         <v>47</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C83" s="52" t="s">
         <v>86</v>
@@ -8043,79 +8095,79 @@
       <c r="A84" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="68">
+      <c r="B84" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="69">
         <v>8213558</v>
       </c>
-      <c r="D84" s="69">
+      <c r="D84" s="70">
         <v>1267781</v>
       </c>
-      <c r="E84" s="69">
+      <c r="E84" s="70">
         <v>2418621</v>
       </c>
-      <c r="F84" s="69">
+      <c r="F84" s="70">
         <v>308193</v>
       </c>
-      <c r="G84" s="69">
+      <c r="G84" s="70">
         <v>2790180</v>
       </c>
-      <c r="H84" s="70">
+      <c r="H84" s="71">
         <v>1227831</v>
       </c>
-      <c r="I84" s="69">
+      <c r="I84" s="70">
         <v>5237683</v>
       </c>
-      <c r="J84" s="69">
+      <c r="J84" s="70">
         <v>1197988</v>
       </c>
-      <c r="K84" s="69">
+      <c r="K84" s="70">
         <v>1683107</v>
       </c>
-      <c r="L84" s="69">
+      <c r="L84" s="70">
         <v>253812</v>
       </c>
-      <c r="M84" s="69">
+      <c r="M84" s="70">
         <v>446435</v>
       </c>
-      <c r="N84" s="70">
+      <c r="N84" s="71">
         <v>31425</v>
       </c>
-      <c r="O84" s="68">
+      <c r="O84" s="69">
         <v>1010948</v>
       </c>
-      <c r="P84" s="69">
+      <c r="P84" s="70">
         <v>271478</v>
       </c>
-      <c r="Q84" s="69">
+      <c r="Q84" s="70">
         <v>903441</v>
       </c>
-      <c r="R84" s="69">
+      <c r="R84" s="70">
         <v>128317</v>
       </c>
-      <c r="S84" s="69">
+      <c r="S84" s="70">
         <v>514844</v>
       </c>
-      <c r="T84" s="70">
+      <c r="T84" s="71">
         <v>423512</v>
       </c>
-      <c r="U84" s="69">
+      <c r="U84" s="70">
         <v>1924421</v>
       </c>
-      <c r="V84" s="69">
+      <c r="V84" s="70">
         <v>761363</v>
       </c>
-      <c r="W84" s="69">
+      <c r="W84" s="70">
         <v>477635</v>
       </c>
-      <c r="X84" s="69">
+      <c r="X84" s="70">
         <v>76035</v>
       </c>
-      <c r="Y84" s="69">
+      <c r="Y84" s="70">
         <v>374601</v>
       </c>
-      <c r="Z84" s="70">
+      <c r="Z84" s="71">
         <v>-2582</v>
       </c>
     </row>
@@ -8123,8 +8175,8 @@
       <c r="A85" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="71" t="s">
-        <v>163</v>
+      <c r="B85" s="74" t="s">
+        <v>165</v>
       </c>
       <c r="C85" s="60" t="s">
         <v>86</v>
@@ -8204,7 +8256,7 @@
         <v>47</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C86" s="60">
         <v>3855734</v>
@@ -8284,7 +8336,7 @@
         <v>47</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C87" s="60" t="s">
         <v>86</v>
@@ -8364,7 +8416,7 @@
         <v>47</v>
       </c>
       <c r="B88" s="51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C88" s="60">
         <v>232469</v>
@@ -8444,7 +8496,7 @@
         <v>47</v>
       </c>
       <c r="B89" s="51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C89" s="60" t="s">
         <v>86</v>
@@ -8524,7 +8576,7 @@
         <v>47</v>
       </c>
       <c r="B90" s="63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C90" s="64">
         <v>266</v>
@@ -8604,7 +8656,7 @@
         <v>47</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C91" s="60">
         <v>9582630</v>
@@ -8684,7 +8736,7 @@
         <v>47</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C92" s="60" t="s">
         <v>86</v>
@@ -8764,7 +8816,7 @@
         <v>47</v>
       </c>
       <c r="B93" s="51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C93" s="60">
         <v>54096</v>
@@ -8844,7 +8896,7 @@
         <v>47</v>
       </c>
       <c r="B94" s="51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C94" s="60" t="s">
         <v>86</v>
@@ -8924,7 +8976,7 @@
         <v>47</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C95" s="60">
         <v>6555693</v>
@@ -9004,7 +9056,7 @@
         <v>47</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C96" s="52" t="s">
         <v>86</v>
@@ -9083,79 +9135,79 @@
       <c r="A97" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B97" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C97" s="68">
+      <c r="B97" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="69">
         <v>7092569</v>
       </c>
-      <c r="D97" s="69">
+      <c r="D97" s="70">
         <v>429043</v>
       </c>
-      <c r="E97" s="69">
+      <c r="E97" s="70">
         <v>1003947</v>
       </c>
-      <c r="F97" s="69">
+      <c r="F97" s="70">
         <v>117347</v>
       </c>
-      <c r="G97" s="69">
+      <c r="G97" s="70">
         <v>2591174</v>
       </c>
-      <c r="H97" s="70">
+      <c r="H97" s="71">
         <v>2007761</v>
       </c>
-      <c r="I97" s="69">
+      <c r="I97" s="70">
         <v>8058472</v>
       </c>
-      <c r="J97" s="69">
+      <c r="J97" s="70">
         <v>790269</v>
       </c>
-      <c r="K97" s="69">
+      <c r="K97" s="70">
         <v>1432521</v>
       </c>
-      <c r="L97" s="69">
+      <c r="L97" s="70">
         <v>122282</v>
       </c>
-      <c r="M97" s="69">
+      <c r="M97" s="70">
         <v>1690477</v>
       </c>
-      <c r="N97" s="70">
+      <c r="N97" s="71">
         <v>135024</v>
       </c>
-      <c r="O97" s="68">
+      <c r="O97" s="69">
         <v>218249</v>
       </c>
-      <c r="P97" s="69">
+      <c r="P97" s="70">
         <v>68348</v>
       </c>
-      <c r="Q97" s="69">
+      <c r="Q97" s="70">
         <v>127840</v>
       </c>
-      <c r="R97" s="69">
+      <c r="R97" s="70">
         <v>6629</v>
       </c>
-      <c r="S97" s="69">
+      <c r="S97" s="70">
         <v>364811</v>
       </c>
-      <c r="T97" s="70">
+      <c r="T97" s="71">
         <v>584468</v>
       </c>
-      <c r="U97" s="69">
+      <c r="U97" s="70">
         <v>1509411</v>
       </c>
-      <c r="V97" s="69">
+      <c r="V97" s="70">
         <v>508615</v>
       </c>
-      <c r="W97" s="69">
+      <c r="W97" s="70">
         <v>507694</v>
       </c>
-      <c r="X97" s="69">
+      <c r="X97" s="70">
         <v>46851</v>
       </c>
-      <c r="Y97" s="69">
+      <c r="Y97" s="70">
         <v>1180877</v>
       </c>
-      <c r="Z97" s="70">
+      <c r="Z97" s="71">
         <v>-17793</v>
       </c>
     </row>
@@ -9164,7 +9216,7 @@
         <v>47</v>
       </c>
       <c r="B98" s="63" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C98" s="64" t="s">
         <v>86</v>
@@ -9240,8 +9292,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
-      <c r="B99" s="73"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="76"/>
       <c r="C99" s="53"/>
       <c r="D99" s="53"/>
       <c r="E99" s="53"/>
@@ -9269,434 +9321,434 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
-      <c r="N100" s="74"/>
-      <c r="O100" s="74"/>
-      <c r="P100" s="74"/>
-      <c r="Q100" s="74"/>
-      <c r="R100" s="74"/>
-      <c r="S100" s="74"/>
-      <c r="T100" s="74"/>
-      <c r="U100" s="74"/>
-      <c r="V100" s="74"/>
-      <c r="W100" s="74"/>
-      <c r="X100" s="74"/>
-      <c r="Y100" s="74"/>
-      <c r="Z100" s="74"/>
+        <v>179</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+      <c r="T100" s="77"/>
+      <c r="U100" s="77"/>
+      <c r="V100" s="77"/>
+      <c r="W100" s="77"/>
+      <c r="X100" s="77"/>
+      <c r="Y100" s="77"/>
+      <c r="Z100" s="77"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
-      <c r="L101" s="74"/>
-      <c r="M101" s="74"/>
-      <c r="N101" s="74"/>
-      <c r="O101" s="74"/>
-      <c r="P101" s="74"/>
-      <c r="Q101" s="74"/>
-      <c r="R101" s="74"/>
-      <c r="S101" s="74"/>
-      <c r="T101" s="74"/>
-      <c r="U101" s="74"/>
-      <c r="V101" s="74"/>
-      <c r="W101" s="74"/>
-      <c r="X101" s="74"/>
-      <c r="Y101" s="74"/>
-      <c r="Z101" s="74"/>
+        <v>180</v>
+      </c>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="77"/>
+      <c r="N101" s="77"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="77"/>
+      <c r="Q101" s="77"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="77"/>
+      <c r="U101" s="77"/>
+      <c r="V101" s="77"/>
+      <c r="W101" s="77"/>
+      <c r="X101" s="77"/>
+      <c r="Y101" s="77"/>
+      <c r="Z101" s="77"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="74"/>
-      <c r="S102" s="74"/>
-      <c r="T102" s="74"/>
-      <c r="U102" s="74"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="74"/>
-      <c r="X102" s="74"/>
-      <c r="Y102" s="74"/>
-      <c r="Z102" s="74"/>
+        <v>181</v>
+      </c>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="77"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
+      <c r="Q102" s="77"/>
+      <c r="R102" s="77"/>
+      <c r="S102" s="77"/>
+      <c r="T102" s="77"/>
+      <c r="U102" s="77"/>
+      <c r="V102" s="77"/>
+      <c r="W102" s="77"/>
+      <c r="X102" s="77"/>
+      <c r="Y102" s="77"/>
+      <c r="Z102" s="77"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="74"/>
-      <c r="L103" s="74"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="74"/>
-      <c r="O103" s="74"/>
-      <c r="P103" s="74"/>
-      <c r="Q103" s="74"/>
-      <c r="R103" s="74"/>
-      <c r="S103" s="74"/>
-      <c r="T103" s="74"/>
-      <c r="U103" s="74"/>
-      <c r="V103" s="74"/>
-      <c r="W103" s="74"/>
-      <c r="X103" s="74"/>
-      <c r="Y103" s="74"/>
-      <c r="Z103" s="74"/>
+        <v>182</v>
+      </c>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
+      <c r="Q103" s="77"/>
+      <c r="R103" s="77"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="77"/>
+      <c r="V103" s="77"/>
+      <c r="W103" s="77"/>
+      <c r="X103" s="77"/>
+      <c r="Y103" s="77"/>
+      <c r="Z103" s="77"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="74"/>
-      <c r="L104" s="74"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="74"/>
-      <c r="O104" s="74"/>
-      <c r="P104" s="74"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="74"/>
-      <c r="S104" s="74"/>
-      <c r="T104" s="74"/>
-      <c r="U104" s="74"/>
-      <c r="V104" s="74"/>
-      <c r="W104" s="74"/>
-      <c r="X104" s="74"/>
-      <c r="Y104" s="74"/>
-      <c r="Z104" s="74"/>
+        <v>183</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="74"/>
-      <c r="O105" s="74"/>
-      <c r="P105" s="74"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="74"/>
-      <c r="S105" s="74"/>
-      <c r="T105" s="74"/>
-      <c r="U105" s="74"/>
-      <c r="V105" s="74"/>
-      <c r="W105" s="74"/>
-      <c r="X105" s="74"/>
-      <c r="Y105" s="74"/>
-      <c r="Z105" s="74"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
+      <c r="W105" s="77"/>
+      <c r="X105" s="77"/>
+      <c r="Y105" s="77"/>
+      <c r="Z105" s="77"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="74"/>
-      <c r="L106" s="74"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="74"/>
-      <c r="O106" s="74"/>
-      <c r="P106" s="74"/>
-      <c r="Q106" s="74"/>
-      <c r="R106" s="74"/>
-      <c r="S106" s="74"/>
-      <c r="T106" s="74"/>
-      <c r="U106" s="74"/>
-      <c r="V106" s="74"/>
-      <c r="W106" s="74"/>
-      <c r="X106" s="74"/>
-      <c r="Y106" s="74"/>
-      <c r="Z106" s="74"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="77"/>
+      <c r="V106" s="77"/>
+      <c r="W106" s="77"/>
+      <c r="X106" s="77"/>
+      <c r="Y106" s="77"/>
+      <c r="Z106" s="77"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
-      <c r="L107" s="74"/>
-      <c r="M107" s="74"/>
-      <c r="N107" s="74"/>
-      <c r="O107" s="74"/>
-      <c r="P107" s="74"/>
-      <c r="Q107" s="74"/>
-      <c r="R107" s="74"/>
-      <c r="S107" s="74"/>
-      <c r="T107" s="74"/>
-      <c r="U107" s="74"/>
-      <c r="V107" s="74"/>
-      <c r="W107" s="74"/>
-      <c r="X107" s="74"/>
-      <c r="Y107" s="74"/>
-      <c r="Z107" s="74"/>
+      <c r="B107" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
+      <c r="Q107" s="77"/>
+      <c r="R107" s="77"/>
+      <c r="S107" s="77"/>
+      <c r="T107" s="77"/>
+      <c r="U107" s="77"/>
+      <c r="V107" s="77"/>
+      <c r="W107" s="77"/>
+      <c r="X107" s="77"/>
+      <c r="Y107" s="77"/>
+      <c r="Z107" s="77"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="75"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-      <c r="K108" s="74"/>
-      <c r="L108" s="74"/>
-      <c r="M108" s="74"/>
-      <c r="N108" s="74"/>
-      <c r="O108" s="74"/>
-      <c r="P108" s="74"/>
-      <c r="Q108" s="74"/>
-      <c r="R108" s="74"/>
-      <c r="S108" s="74"/>
-      <c r="T108" s="74"/>
-      <c r="U108" s="74"/>
-      <c r="V108" s="74"/>
-      <c r="W108" s="74"/>
-      <c r="X108" s="74"/>
-      <c r="Y108" s="74"/>
-      <c r="Z108" s="74"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="77"/>
+      <c r="N108" s="77"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="77"/>
+      <c r="Q108" s="77"/>
+      <c r="R108" s="77"/>
+      <c r="S108" s="77"/>
+      <c r="T108" s="77"/>
+      <c r="U108" s="77"/>
+      <c r="V108" s="77"/>
+      <c r="W108" s="77"/>
+      <c r="X108" s="77"/>
+      <c r="Y108" s="77"/>
+      <c r="Z108" s="77"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
-      <c r="L109" s="74"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="74"/>
-      <c r="Q109" s="74"/>
-      <c r="R109" s="74"/>
-      <c r="S109" s="74"/>
-      <c r="T109" s="74"/>
-      <c r="U109" s="74"/>
-      <c r="V109" s="74"/>
-      <c r="W109" s="74"/>
-      <c r="X109" s="74"/>
-      <c r="Y109" s="74"/>
-      <c r="Z109" s="74"/>
+        <v>186</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
+      <c r="Q109" s="77"/>
+      <c r="R109" s="77"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="77"/>
+      <c r="V109" s="77"/>
+      <c r="W109" s="77"/>
+      <c r="X109" s="77"/>
+      <c r="Y109" s="77"/>
+      <c r="Z109" s="77"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="77"/>
+      <c r="R110" s="77"/>
+      <c r="S110" s="77"/>
+      <c r="T110" s="77"/>
+      <c r="U110" s="77"/>
+      <c r="V110" s="77"/>
+      <c r="W110" s="77"/>
+      <c r="X110" s="77"/>
+      <c r="Y110" s="77"/>
+      <c r="Z110" s="77"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B111" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="77"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="77"/>
+      <c r="V111" s="77"/>
+      <c r="W111" s="77"/>
+      <c r="X111" s="77"/>
+      <c r="Y111" s="77"/>
+      <c r="Z111" s="77"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B112" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="74"/>
-      <c r="K110" s="74"/>
-      <c r="L110" s="74"/>
-      <c r="M110" s="74"/>
-      <c r="N110" s="74"/>
-      <c r="O110" s="74"/>
-      <c r="P110" s="74"/>
-      <c r="Q110" s="74"/>
-      <c r="R110" s="74"/>
-      <c r="S110" s="74"/>
-      <c r="T110" s="74"/>
-      <c r="U110" s="74"/>
-      <c r="V110" s="74"/>
-      <c r="W110" s="74"/>
-      <c r="X110" s="74"/>
-      <c r="Y110" s="74"/>
-      <c r="Z110" s="74"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-      <c r="K111" s="74"/>
-      <c r="L111" s="74"/>
-      <c r="M111" s="74"/>
-      <c r="N111" s="74"/>
-      <c r="O111" s="74"/>
-      <c r="P111" s="74"/>
-      <c r="Q111" s="74"/>
-      <c r="R111" s="74"/>
-      <c r="S111" s="74"/>
-      <c r="T111" s="74"/>
-      <c r="U111" s="74"/>
-      <c r="V111" s="74"/>
-      <c r="W111" s="74"/>
-      <c r="X111" s="74"/>
-      <c r="Y111" s="74"/>
-      <c r="Z111" s="74"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="74"/>
-      <c r="L112" s="74"/>
-      <c r="M112" s="74"/>
-      <c r="N112" s="74"/>
-      <c r="O112" s="74"/>
-      <c r="P112" s="74"/>
-      <c r="Q112" s="74"/>
-      <c r="R112" s="74"/>
-      <c r="S112" s="74"/>
-      <c r="T112" s="74"/>
-      <c r="U112" s="74"/>
-      <c r="V112" s="74"/>
-      <c r="W112" s="74"/>
-      <c r="X112" s="74"/>
-      <c r="Y112" s="74"/>
-      <c r="Z112" s="74"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="77"/>
+      <c r="V112" s="77"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
     </row>
     <row r="113" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="74"/>
-      <c r="K113" s="74"/>
-      <c r="L113" s="74"/>
-      <c r="M113" s="74"/>
-      <c r="N113" s="74"/>
-      <c r="O113" s="74"/>
-      <c r="P113" s="74"/>
-      <c r="Q113" s="74"/>
-      <c r="R113" s="74"/>
-      <c r="S113" s="74"/>
-      <c r="T113" s="74"/>
-      <c r="U113" s="74"/>
-      <c r="V113" s="74"/>
-      <c r="W113" s="74"/>
-      <c r="X113" s="74"/>
-      <c r="Y113" s="74"/>
-      <c r="Z113" s="74"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="77"/>
+      <c r="N113" s="77"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="77"/>
+      <c r="Q113" s="77"/>
+      <c r="R113" s="77"/>
+      <c r="S113" s="77"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="77"/>
+      <c r="V113" s="77"/>
+      <c r="W113" s="77"/>
+      <c r="X113" s="77"/>
+      <c r="Y113" s="77"/>
+      <c r="Z113" s="77"/>
     </row>
     <row r="114" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="74"/>
-      <c r="K114" s="74"/>
-      <c r="L114" s="74"/>
-      <c r="M114" s="74"/>
-      <c r="N114" s="74"/>
-      <c r="O114" s="74"/>
-      <c r="P114" s="74"/>
-      <c r="Q114" s="74"/>
-      <c r="R114" s="74"/>
-      <c r="S114" s="74"/>
-      <c r="T114" s="74"/>
-      <c r="U114" s="74"/>
-      <c r="V114" s="74"/>
-      <c r="W114" s="74"/>
-      <c r="X114" s="74"/>
-      <c r="Y114" s="74"/>
-      <c r="Z114" s="74"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+      <c r="W114" s="77"/>
+      <c r="X114" s="77"/>
+      <c r="Y114" s="77"/>
+      <c r="Z114" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{12DEAC79-F8C9-47E4-90A3-1B0113C8F73D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{927D22B6-4DF2-4FB6-99E5-1962399C180E}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{936BEA10-9241-4543-83C2-381636400EBC}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{35A89C32-E65F-4D17-A867-8684D4D5268B}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{88419A15-06CB-48E2-886F-51798833BA13}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E7407426-24F5-4408-A0AD-D8CA06D7AB8F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E43FB596-29CB-4D1F-887A-BF46B046E52D}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{48F19740-C798-4EA5-A032-608B873A7FAB}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{E6873490-C581-499E-B175-55693A43AD50}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{54A68624-B494-4216-887A-EAA900AB8B9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
